--- a/NEW HR/RAMA, RAQUEL.xlsx
+++ b/NEW HR/RAMA, RAQUEL.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="101">
   <si>
     <t>PERIOD</t>
   </si>
@@ -294,6 +294,51 @@
   </si>
   <si>
     <t>9/11,14,15/2023</t>
+  </si>
+  <si>
+    <t>9/20,21,22/2023</t>
+  </si>
+  <si>
+    <t>9/27,28,29/2023</t>
+  </si>
+  <si>
+    <t>10/4-6/2023</t>
+  </si>
+  <si>
+    <t>10/11-13/2023</t>
+  </si>
+  <si>
+    <t>10/18-20/2023</t>
+  </si>
+  <si>
+    <t>11/3,8,10/2023</t>
+  </si>
+  <si>
+    <t>10/23,24/2023</t>
+  </si>
+  <si>
+    <t>10/27,28,29/2023</t>
+  </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>11/21,22,23,24/2023</t>
+  </si>
+  <si>
+    <t>11/14,15,16,17/2023</t>
+  </si>
+  <si>
+    <t>11/28-30/2023</t>
+  </si>
+  <si>
+    <t>12/1,5-7/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/12-15/2023</t>
   </si>
 </sst>
 </file>
@@ -530,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -675,17 +720,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -695,9 +746,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1226,7 +1274,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K108" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K109" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1585,12 +1633,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K108"/>
+  <dimension ref="A2:K109"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A77" activePane="bottomLeft"/>
-      <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
+      <pane ySplit="3690" topLeftCell="A74" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,16 +1660,16 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
@@ -1633,28 +1681,28 @@
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
@@ -1691,18 +1739,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1749,7 +1797,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>60</v>
+        <v>63.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1759,7 +1807,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>85</v>
+        <v>88.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3297,13 +3345,15 @@
         <v>45199</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -3315,13 +3365,15 @@
         <v>45230</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -3332,19 +3384,25 @@
       <c r="A87" s="40">
         <v>45260</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="B87" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="49">
+        <v>45236</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
@@ -3365,8 +3423,8 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40">
-        <v>45322</v>
+      <c r="A89" s="48" t="s">
+        <v>99</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3384,7 +3442,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3402,7 +3460,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3420,7 +3478,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3438,7 +3496,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3456,7 +3514,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3474,7 +3532,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3492,7 +3550,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3510,7 +3568,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3528,7 +3586,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3546,7 +3604,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3564,7 +3622,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3581,7 +3639,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45657</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -3693,34 +3753,50 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="41"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="43"/>
+      <c r="A108" s="40"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="39"/>
       <c r="E108" s="9"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H108" s="43"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H108" s="39"/>
       <c r="I108" s="9"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="15"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="20"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="41"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H109" s="43"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3756,9 +3832,9 @@
   <dimension ref="A2:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A37" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A49" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3780,16 +3856,16 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
@@ -3801,28 +3877,28 @@
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
@@ -3859,18 +3935,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3927,7 +4003,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>124.208</v>
+        <v>81.207999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4826,7 +4902,9 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
-      <c r="B51" s="20"/>
+      <c r="B51" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C51" s="13"/>
       <c r="D51" s="39"/>
       <c r="E51" s="9"/>
@@ -4835,14 +4913,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H51" s="39"/>
+      <c r="H51" s="39">
+        <v>3</v>
+      </c>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="20"/>
+      <c r="K51" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
-      <c r="B52" s="20"/>
+      <c r="B52" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C52" s="13"/>
       <c r="D52" s="39"/>
       <c r="E52" s="9"/>
@@ -4851,14 +4935,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H52" s="39"/>
+      <c r="H52" s="39">
+        <v>3</v>
+      </c>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
+      <c r="K52" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C53" s="13"/>
       <c r="D53" s="39"/>
       <c r="E53" s="9"/>
@@ -4867,14 +4959,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H53" s="39"/>
+      <c r="H53" s="39">
+        <v>3</v>
+      </c>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20"/>
+      <c r="K53" s="20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
-      <c r="B54" s="20"/>
+      <c r="B54" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C54" s="13"/>
       <c r="D54" s="39"/>
       <c r="E54" s="9"/>
@@ -4883,14 +4981,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H54" s="39"/>
+      <c r="H54" s="39">
+        <v>3</v>
+      </c>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="20"/>
+      <c r="K54" s="20" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
-      <c r="B55" s="20"/>
+      <c r="B55" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C55" s="13"/>
       <c r="D55" s="39"/>
       <c r="E55" s="9"/>
@@ -4899,14 +5003,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H55" s="39"/>
+      <c r="H55" s="39">
+        <v>3</v>
+      </c>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="20"/>
+      <c r="K55" s="20" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
-      <c r="B56" s="20"/>
+      <c r="B56" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C56" s="13"/>
       <c r="D56" s="39"/>
       <c r="E56" s="9"/>
@@ -4915,14 +5025,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H56" s="39"/>
+      <c r="H56" s="39">
+        <v>2</v>
+      </c>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="20"/>
+      <c r="K56" s="20" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="20"/>
+      <c r="A57" s="40">
+        <v>45237</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C57" s="13"/>
       <c r="D57" s="39"/>
       <c r="E57" s="9"/>
@@ -4931,14 +5049,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H57" s="39"/>
+      <c r="H57" s="39">
+        <v>3</v>
+      </c>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="20"/>
+      <c r="K57" s="20" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="20"/>
+      <c r="A58" s="40">
+        <v>45237</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C58" s="13"/>
       <c r="D58" s="39"/>
       <c r="E58" s="9"/>
@@ -4947,14 +5073,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H58" s="39"/>
+      <c r="H58" s="39">
+        <v>1</v>
+      </c>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="20"/>
+      <c r="K58" s="49">
+        <v>45230</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
-      <c r="B59" s="20"/>
+      <c r="B59" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C59" s="13"/>
       <c r="D59" s="39"/>
       <c r="E59" s="9"/>
@@ -4963,14 +5095,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H59" s="39"/>
+      <c r="H59" s="39">
+        <v>3</v>
+      </c>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="20"/>
+      <c r="K59" s="20" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
-      <c r="B60" s="20"/>
+      <c r="B60" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="C60" s="13"/>
       <c r="D60" s="39"/>
       <c r="E60" s="9"/>
@@ -4979,14 +5117,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H60" s="39"/>
+      <c r="H60" s="39">
+        <v>4</v>
+      </c>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="20"/>
+      <c r="K60" s="20" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
-      <c r="B61" s="20"/>
+      <c r="B61" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="C61" s="13"/>
       <c r="D61" s="39"/>
       <c r="E61" s="9"/>
@@ -4995,14 +5139,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H61" s="39"/>
+      <c r="H61" s="39">
+        <v>4</v>
+      </c>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20"/>
+      <c r="K61" s="50" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
-      <c r="B62" s="20"/>
+      <c r="B62" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
       <c r="E62" s="9"/>
@@ -5011,14 +5161,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H62" s="39"/>
+      <c r="H62" s="39">
+        <v>3</v>
+      </c>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="20"/>
+      <c r="K62" s="20" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="20"/>
+      <c r="A63" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="C63" s="13"/>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
@@ -5027,14 +5185,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H63" s="39"/>
+      <c r="H63" s="39">
+        <v>4</v>
+      </c>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20"/>
+      <c r="K63" s="20" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="C64" s="13"/>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
@@ -5043,10 +5207,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H64" s="39"/>
+      <c r="H64" s="39">
+        <v>4</v>
+      </c>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
+      <c r="K64" s="20" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
@@ -5207,17 +5375,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -5296,12 +5464,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
